--- a/biology/Botanique/Lessertia_frutescens/Lessertia_frutescens.xlsx
+++ b/biology/Botanique/Lessertia_frutescens/Lessertia_frutescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Baguenaudier d'Éthiopie (Lessertia frutescens) est une plante de la famille des Fabaceae. L'espèce est plus connue sous l'ancien nom de Sutherlandia frutescens, n'ayant changé de nom que depuis le début des années 2000.
 Elle est nommée « Insisa » en san, « Unwele » en zoulou, « Mukakana » en tswana, « Lerumo-lamadi » (Lance de sang) en sotho du Sud, « cancer bush » en anglais, « kankerbos » en afrikaans, ce qui veut aussi dire « buisson à cancer » ou « kalkoenbos », pour « buisson à la dinde ».
@@ -513,7 +525,9 @@
           <t>Posologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Contre fatigue, anxiété et amaigrissement, une tisane de feuilles de Sutherlandia par jour équivalente à 30 grammes par litre d'eau en infusion.
 </t>
@@ -544,7 +558,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sutherlandia frutescens (L.) R.Br. 1812.</t>
         </is>
